--- a/biology/Zoologie/Cynologie/Cynologie.xlsx
+++ b/biology/Zoologie/Cynologie/Cynologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La cynologie est un terme utilisé pour regrouper les approches, les techniques, les philosophies et les divers outils utilisés pour la sélection des races canines ainsi que pour l'entraînement et l’éducation des chiens.
 La cynologie est une sous-branche de la mammalogie.
